--- a/20230215_VXI-11 通信の概要/750_VXI_11_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/750_VXI_11_HeaderFormat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DF8C62-E7C4-4319-ACD5-FF53A0FDCCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F43714D-C8A2-41FF-B1B7-F64F88E2BD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45690" yWindow="3540" windowWidth="16470" windowHeight="15345" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="30450" yWindow="1215" windowWidth="17460" windowHeight="19005" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="パケット構造" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">パケット構造!$B$3:$AJ$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">パケット構造!$B$3:$AJ$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t>+28</t>
   </si>
@@ -73,153 +73,6 @@
   </si>
   <si>
     <t>+72</t>
-  </si>
-  <si>
-    <t>error / エラー番号</t>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lid　/ リンク番号</t>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>size / 書き込んだバイト数</t>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abortPort  / アボートチャネルの TCP ポート番号</t>
-    <rPh sb="30" eb="32">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>device.length / デバイス名の長さ</t>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data.length / コマンドの長さ</t>
-    <rPh sb="19" eb="20">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data.length / 応答文字列の長さ</t>
-    <rPh sb="14" eb="19">
-      <t>オウトウモジレツ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>io_timeout / I/O 処理の最大待ち時間</t>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lock_timeout / ロック処理の最大待ち時間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reason / 読み出し完了の理由</t>
-    <rPh sb="9" eb="10">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>requestSize / 読み出しバイト数</t>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lockDevice / ロックするかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maxRecvSize / １度に受け付けられる最大バイト数</t>
-    <rPh sb="15" eb="16">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>flags / 操作フラグ</t>
-    <rPh sb="8" eb="10">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clientId / クライアント識別子</t>
-    <rPh sb="17" eb="20">
-      <t>シキベツシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>create_link の引数 Create_LinkParms の形式</t>
@@ -314,10 +167,202 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>termchar /終端文字</t>
-    <rPh sb="10" eb="14">
-      <t>シュウタンモジ</t>
-    </rPh>
+    <t>+0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+8</t>
+  </si>
+  <si>
+    <t>+12</t>
+  </si>
+  <si>
+    <t>+16</t>
+  </si>
+  <si>
+    <t>+20</t>
+  </si>
+  <si>
+    <t>+24</t>
+  </si>
+  <si>
+    <r>
+      <t>"VXI-11 message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clientId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lock_timeout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lockDevice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device.length</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abortPort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxRecvSize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>io_timeout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data.length</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requestSize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>termchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL (=0) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPLY (=1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSG_ACCEPTED (=0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUCCESS (=0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEVICE_CORE (=0x0607AF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEVICE_CORE_VERSION (=1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_link (=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_write (=11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_read (=12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destroy_link (=23)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;--------------------- 52  ---------------------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32 + N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>56 + N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52 + N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-------------- 36  --------------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;---------- 28  -----------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;------------------------- 60  -------------------------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;---------------- 40  ----------------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;--------- 24  --------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt; N &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-- N --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;------------ 32  ------------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;---- N ----&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;----------------------- 56  -----------------------&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +386,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -892,13 +960,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,28 +1295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
@@ -940,6 +1306,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,49 +1337,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1007,13 +1370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1024,6 +1387,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,13 +1525,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1116,43 +1593,6 @@
             </a:rPr>
             <a:t>device.body</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>デバイス名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1162,13 +1602,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1239,13 +1679,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>190314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>21103</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>102721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1307,36 +1747,6 @@
             </a:rPr>
             <a:t>data.body</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> コマンド文字列</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1353,13 +1763,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>38286</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>57336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>76387</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>181161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1419,25 +1829,8 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>0 </a:t>
+            <a:t>0 padding </a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>埋め</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1447,13 +1840,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>373</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>237005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>102721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1515,36 +1908,6 @@
             </a:rPr>
             <a:t>data.body</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> 応答文字列</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1561,13 +1924,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19609</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>57710</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2059,13 +2422,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2116,13 +2479,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2173,13 +2536,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2230,7 +2593,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2285,7 +2648,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>168090</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -2350,7 +2713,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -2415,7 +2778,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -2480,13 +2843,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2537,13 +2900,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2594,13 +2957,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2651,7 +3014,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2706,7 +3069,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>177429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -2771,7 +3134,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -2836,7 +3199,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -2901,13 +3264,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2958,13 +3321,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3015,13 +3378,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3072,7 +3435,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3127,7 +3490,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>177429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -3192,7 +3555,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -3257,7 +3620,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -3322,13 +3685,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3379,13 +3742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3436,13 +3799,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3493,7 +3856,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3548,7 +3911,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>177429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -3613,7 +3976,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -3678,7 +4041,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -3743,13 +4106,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3800,13 +4163,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3857,13 +4220,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3914,7 +4277,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3969,7 +4332,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>177429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4034,7 +4397,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4099,7 +4462,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4164,13 +4527,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4221,13 +4584,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4278,13 +4641,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4335,7 +4698,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -4390,7 +4753,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>177429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4455,7 +4818,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4520,7 +4883,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4585,13 +4948,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4642,13 +5005,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>169599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4699,13 +5062,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4756,7 +5119,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -4811,7 +5174,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>177429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4876,7 +5239,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -4941,7 +5304,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -5305,1880 +5668,4970 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BR83"/>
+  <dimension ref="B1:BR156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="AK89" sqref="AK89"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
-    <col min="3" max="34" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="10" width="1.25" customWidth="1"/>
+    <col min="11" max="34" width="1.625" customWidth="1"/>
     <col min="35" max="40" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:70" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B1"/>
     </row>
-    <row r="2" spans="2:70" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B4"/>
+      <c r="C4" s="4"/>
+      <c r="AH4" s="5"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B5"/>
+      <c r="C5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="AH5" s="5"/>
+    </row>
+    <row r="6" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="7"/>
+    </row>
+    <row r="7" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="66">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="43"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="64"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="64"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="64"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="64"/>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B4"/>
-      <c r="C4" s="9"/>
-      <c r="AH4" s="10"/>
-    </row>
-    <row r="5" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B5"/>
-      <c r="C5" s="9"/>
-      <c r="R5" s="10"/>
-      <c r="AH5" s="10"/>
-    </row>
-    <row r="6" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="64"/>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="64"/>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="64"/>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="64"/>
+    </row>
+    <row r="17" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="50">
+        <v>0</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="64"/>
+    </row>
+    <row r="18" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="64"/>
+    </row>
+    <row r="19" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="64"/>
+    </row>
+    <row r="20" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="64"/>
+    </row>
+    <row r="21" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="65"/>
+    </row>
+    <row r="22" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="69"/>
+    </row>
+    <row r="24" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="AH24" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI25" s="3"/>
+      <c r="BR25" s="3"/>
+    </row>
+    <row r="26" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B27"/>
+      <c r="C27" s="4"/>
+      <c r="AH27" s="5"/>
+    </row>
+    <row r="28" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B28"/>
+      <c r="C28" s="4"/>
+      <c r="R28" s="5"/>
+      <c r="AH28" s="5"/>
+    </row>
+    <row r="29" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="7"/>
+    </row>
+    <row r="30" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="66">
+        <v>1</v>
+      </c>
+      <c r="D30" s="42">
+        <v>36</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="43"/>
+    </row>
+    <row r="31" spans="2:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:70" x14ac:dyDescent="0.4">
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="68"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="68"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="56">
+        <v>0</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="68"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="16"/>
-    </row>
-    <row r="8" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+      <c r="C35" s="59">
+        <v>0</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="68"/>
+    </row>
+    <row r="36" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="68"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="68"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="68"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="68"/>
+    </row>
+    <row r="40" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="69"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AH41" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B44"/>
+      <c r="C44" s="4"/>
+      <c r="AH44" s="5"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B45"/>
+      <c r="C45" s="4"/>
+      <c r="R45" s="5"/>
+      <c r="AH45" s="5"/>
+    </row>
+    <row r="46" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="7"/>
+    </row>
+    <row r="47" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="66">
+        <v>1</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="43"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="64"/>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="64"/>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="64"/>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="64"/>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="64"/>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="44">
+        <v>0</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="45"/>
+      <c r="AH54" s="46"/>
+      <c r="AI54" s="64"/>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="47">
+        <v>0</v>
+      </c>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="48"/>
+      <c r="AH55" s="49"/>
+      <c r="AI55" s="64"/>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="44">
+        <v>0</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+      <c r="Y56" s="45"/>
+      <c r="Z56" s="45"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="45"/>
+      <c r="AC56" s="45"/>
+      <c r="AD56" s="45"/>
+      <c r="AE56" s="45"/>
+      <c r="AF56" s="45"/>
+      <c r="AG56" s="45"/>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="64"/>
+    </row>
+    <row r="57" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="50">
+        <v>0</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="51"/>
+      <c r="AE57" s="51"/>
+      <c r="AF57" s="51"/>
+      <c r="AG57" s="51"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="64"/>
+    </row>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="64"/>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="64"/>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="14"/>
+      <c r="AI60" s="64"/>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="64"/>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="65"/>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="41"/>
+      <c r="AI63" s="67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="68"/>
+    </row>
+    <row r="65" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="30"/>
+      <c r="AG65" s="30"/>
+      <c r="AH65" s="31"/>
+      <c r="AI65" s="69"/>
+    </row>
+    <row r="66" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AH66" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B69"/>
+      <c r="C69" s="4"/>
+      <c r="AH69" s="5"/>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B70"/>
+      <c r="C70" s="4"/>
+      <c r="R70" s="5"/>
+      <c r="AH70" s="5"/>
+    </row>
+    <row r="71" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="8"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="7"/>
+    </row>
+    <row r="72" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="66">
+        <v>1</v>
+      </c>
+      <c r="D72" s="42">
+        <v>28</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="43"/>
+    </row>
+    <row r="73" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="17"/>
+      <c r="AI73" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="18"/>
-    </row>
-    <row r="9" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="C74" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="64"/>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="54"/>
+      <c r="X75" s="54"/>
+      <c r="Y75" s="54"/>
+      <c r="Z75" s="54"/>
+      <c r="AA75" s="54"/>
+      <c r="AB75" s="54"/>
+      <c r="AC75" s="54"/>
+      <c r="AD75" s="54"/>
+      <c r="AE75" s="54"/>
+      <c r="AF75" s="54"/>
+      <c r="AG75" s="54"/>
+      <c r="AH75" s="55"/>
+      <c r="AI75" s="64"/>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="56">
+        <v>0</v>
+      </c>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="57"/>
+      <c r="V76" s="57"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="57"/>
+      <c r="Z76" s="57"/>
+      <c r="AA76" s="57"/>
+      <c r="AB76" s="57"/>
+      <c r="AC76" s="57"/>
+      <c r="AD76" s="57"/>
+      <c r="AE76" s="57"/>
+      <c r="AF76" s="57"/>
+      <c r="AG76" s="57"/>
+      <c r="AH76" s="58"/>
+      <c r="AI76" s="64"/>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="59">
+        <v>0</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="60"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="60"/>
+      <c r="V77" s="60"/>
+      <c r="W77" s="60"/>
+      <c r="X77" s="60"/>
+      <c r="Y77" s="60"/>
+      <c r="Z77" s="60"/>
+      <c r="AA77" s="60"/>
+      <c r="AB77" s="60"/>
+      <c r="AC77" s="60"/>
+      <c r="AD77" s="60"/>
+      <c r="AE77" s="60"/>
+      <c r="AF77" s="60"/>
+      <c r="AG77" s="60"/>
+      <c r="AH77" s="61"/>
+      <c r="AI77" s="64"/>
+    </row>
+    <row r="78" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="54"/>
+      <c r="Y78" s="54"/>
+      <c r="Z78" s="54"/>
+      <c r="AA78" s="54"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="54"/>
+      <c r="AD78" s="54"/>
+      <c r="AE78" s="54"/>
+      <c r="AF78" s="54"/>
+      <c r="AG78" s="54"/>
+      <c r="AH78" s="55"/>
+      <c r="AI78" s="64"/>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="16"/>
+      <c r="AF79" s="16"/>
+      <c r="AG79" s="16"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="64"/>
+    </row>
+    <row r="80" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="65"/>
+    </row>
+    <row r="81" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AH81" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B84"/>
+      <c r="C84" s="4"/>
+      <c r="AH84" s="5"/>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B85"/>
+      <c r="C85" s="4"/>
+      <c r="R85" s="5"/>
+      <c r="AH85" s="5"/>
+    </row>
+    <row r="86" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="7"/>
+    </row>
+    <row r="87" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="66">
+        <v>1</v>
+      </c>
+      <c r="D87" s="42">
+        <v>60</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="42"/>
+      <c r="AA87" s="42"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="42"/>
+      <c r="AD87" s="42"/>
+      <c r="AE87" s="42"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="43"/>
+    </row>
+    <row r="88" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="16"/>
+      <c r="Z88" s="16"/>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="16"/>
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="16"/>
+      <c r="AE88" s="16"/>
+      <c r="AF88" s="16"/>
+      <c r="AG88" s="16"/>
+      <c r="AH88" s="17"/>
+      <c r="AI88" s="63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="13"/>
+      <c r="AE89" s="13"/>
+      <c r="AF89" s="13"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="14"/>
+      <c r="AI89" s="64"/>
+    </row>
+    <row r="90" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="12">
+        <v>2</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="14"/>
+      <c r="AI90" s="64"/>
+    </row>
+    <row r="91" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="14"/>
+      <c r="AI91" s="64"/>
+    </row>
+    <row r="92" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="13"/>
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="13"/>
+      <c r="AD92" s="13"/>
+      <c r="AE92" s="13"/>
+      <c r="AF92" s="13"/>
+      <c r="AG92" s="13"/>
+      <c r="AH92" s="14"/>
+      <c r="AI92" s="64"/>
+    </row>
+    <row r="93" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="13"/>
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="13"/>
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="14"/>
+      <c r="AI93" s="64"/>
+    </row>
+    <row r="94" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="44">
+        <v>0</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="45"/>
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+      <c r="Z94" s="45"/>
+      <c r="AA94" s="45"/>
+      <c r="AB94" s="45"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="45"/>
+      <c r="AE94" s="45"/>
+      <c r="AF94" s="45"/>
+      <c r="AG94" s="45"/>
+      <c r="AH94" s="46"/>
+      <c r="AI94" s="64"/>
+    </row>
+    <row r="95" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="47">
+        <v>0</v>
+      </c>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="48"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="48"/>
+      <c r="AF95" s="48"/>
+      <c r="AG95" s="48"/>
+      <c r="AH95" s="49"/>
+      <c r="AI95" s="64"/>
+    </row>
+    <row r="96" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="44">
+        <v>0</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="45"/>
+      <c r="V96" s="45"/>
+      <c r="W96" s="45"/>
+      <c r="X96" s="45"/>
+      <c r="Y96" s="45"/>
+      <c r="Z96" s="45"/>
+      <c r="AA96" s="45"/>
+      <c r="AB96" s="45"/>
+      <c r="AC96" s="45"/>
+      <c r="AD96" s="45"/>
+      <c r="AE96" s="45"/>
+      <c r="AF96" s="45"/>
+      <c r="AG96" s="45"/>
+      <c r="AH96" s="46"/>
+      <c r="AI96" s="64"/>
+    </row>
+    <row r="97" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="50">
+        <v>0</v>
+      </c>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
+      <c r="T97" s="51"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
+      <c r="W97" s="51"/>
+      <c r="X97" s="51"/>
+      <c r="Y97" s="51"/>
+      <c r="Z97" s="51"/>
+      <c r="AA97" s="51"/>
+      <c r="AB97" s="51"/>
+      <c r="AC97" s="51"/>
+      <c r="AD97" s="51"/>
+      <c r="AE97" s="51"/>
+      <c r="AF97" s="51"/>
+      <c r="AG97" s="51"/>
+      <c r="AH97" s="52"/>
+      <c r="AI97" s="64"/>
+    </row>
+    <row r="98" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="16"/>
+      <c r="Y98" s="16"/>
+      <c r="Z98" s="16"/>
+      <c r="AA98" s="16"/>
+      <c r="AB98" s="16"/>
+      <c r="AC98" s="16"/>
+      <c r="AD98" s="16"/>
+      <c r="AE98" s="16"/>
+      <c r="AF98" s="16"/>
+      <c r="AG98" s="16"/>
+      <c r="AH98" s="17"/>
+      <c r="AI98" s="64"/>
+    </row>
+    <row r="99" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="13"/>
+      <c r="AA99" s="13"/>
+      <c r="AB99" s="13"/>
+      <c r="AC99" s="13"/>
+      <c r="AD99" s="13"/>
+      <c r="AE99" s="13"/>
+      <c r="AF99" s="13"/>
+      <c r="AG99" s="13"/>
+      <c r="AH99" s="14"/>
+      <c r="AI99" s="64"/>
+    </row>
+    <row r="100" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C100" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
+      <c r="X100" s="13"/>
+      <c r="Y100" s="13"/>
+      <c r="Z100" s="13"/>
+      <c r="AA100" s="13"/>
+      <c r="AB100" s="13"/>
+      <c r="AC100" s="13"/>
+      <c r="AD100" s="13"/>
+      <c r="AE100" s="13"/>
+      <c r="AF100" s="13"/>
+      <c r="AG100" s="13"/>
+      <c r="AH100" s="14"/>
+      <c r="AI100" s="64"/>
+    </row>
+    <row r="101" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
+      <c r="Y101" s="13"/>
+      <c r="Z101" s="13"/>
+      <c r="AA101" s="13"/>
+      <c r="AB101" s="13"/>
+      <c r="AC101" s="13"/>
+      <c r="AD101" s="13"/>
+      <c r="AE101" s="13"/>
+      <c r="AF101" s="13"/>
+      <c r="AG101" s="13"/>
+      <c r="AH101" s="14"/>
+      <c r="AI101" s="64"/>
+    </row>
+    <row r="102" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
+      <c r="AA102" s="13"/>
+      <c r="AB102" s="13"/>
+      <c r="AC102" s="13"/>
+      <c r="AD102" s="13"/>
+      <c r="AE102" s="13"/>
+      <c r="AF102" s="13"/>
+      <c r="AG102" s="13"/>
+      <c r="AH102" s="14"/>
+      <c r="AI102" s="64"/>
+    </row>
+    <row r="103" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="10"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="10"/>
+      <c r="AE103" s="10"/>
+      <c r="AF103" s="10"/>
+      <c r="AG103" s="10"/>
+      <c r="AH103" s="11"/>
+      <c r="AI103" s="65"/>
+    </row>
+    <row r="104" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AH104" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B107"/>
+      <c r="C107" s="4"/>
+      <c r="AH107" s="5"/>
+    </row>
+    <row r="108" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B108"/>
+      <c r="C108" s="4"/>
+      <c r="R108" s="5"/>
+      <c r="AH108" s="5"/>
+    </row>
+    <row r="109" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="8"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="6"/>
+      <c r="AE109" s="6"/>
+      <c r="AF109" s="6"/>
+      <c r="AG109" s="6"/>
+      <c r="AH109" s="7"/>
+    </row>
+    <row r="110" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="18"/>
-    </row>
-    <row r="10" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="18"/>
-    </row>
-    <row r="11" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="20"/>
-    </row>
-    <row r="12" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="26"/>
-    </row>
-    <row r="14" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="C110" s="66">
+        <v>1</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="42"/>
+      <c r="V110" s="42"/>
+      <c r="W110" s="42"/>
+      <c r="X110" s="42"/>
+      <c r="Y110" s="42"/>
+      <c r="Z110" s="42"/>
+      <c r="AA110" s="42"/>
+      <c r="AB110" s="42"/>
+      <c r="AC110" s="42"/>
+      <c r="AD110" s="42"/>
+      <c r="AE110" s="42"/>
+      <c r="AF110" s="42"/>
+      <c r="AG110" s="42"/>
+      <c r="AH110" s="43"/>
+    </row>
+    <row r="111" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="16"/>
+      <c r="Y111" s="16"/>
+      <c r="Z111" s="16"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="16"/>
+      <c r="AC111" s="16"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="16"/>
+      <c r="AF111" s="16"/>
+      <c r="AG111" s="16"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13"/>
+      <c r="V112" s="13"/>
+      <c r="W112" s="13"/>
+      <c r="X112" s="13"/>
+      <c r="Y112" s="13"/>
+      <c r="Z112" s="13"/>
+      <c r="AA112" s="13"/>
+      <c r="AB112" s="13"/>
+      <c r="AC112" s="13"/>
+      <c r="AD112" s="13"/>
+      <c r="AE112" s="13"/>
+      <c r="AF112" s="13"/>
+      <c r="AG112" s="13"/>
+      <c r="AH112" s="14"/>
+      <c r="AI112" s="64"/>
+    </row>
+    <row r="113" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="54"/>
+      <c r="O113" s="54"/>
+      <c r="P113" s="54"/>
+      <c r="Q113" s="54"/>
+      <c r="R113" s="54"/>
+      <c r="S113" s="54"/>
+      <c r="T113" s="54"/>
+      <c r="U113" s="54"/>
+      <c r="V113" s="54"/>
+      <c r="W113" s="54"/>
+      <c r="X113" s="54"/>
+      <c r="Y113" s="54"/>
+      <c r="Z113" s="54"/>
+      <c r="AA113" s="54"/>
+      <c r="AB113" s="54"/>
+      <c r="AC113" s="54"/>
+      <c r="AD113" s="54"/>
+      <c r="AE113" s="54"/>
+      <c r="AF113" s="54"/>
+      <c r="AG113" s="54"/>
+      <c r="AH113" s="55"/>
+      <c r="AI113" s="64"/>
+    </row>
+    <row r="114" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="56">
+        <v>0</v>
+      </c>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="57"/>
+      <c r="O114" s="57"/>
+      <c r="P114" s="57"/>
+      <c r="Q114" s="57"/>
+      <c r="R114" s="57"/>
+      <c r="S114" s="57"/>
+      <c r="T114" s="57"/>
+      <c r="U114" s="57"/>
+      <c r="V114" s="57"/>
+      <c r="W114" s="57"/>
+      <c r="X114" s="57"/>
+      <c r="Y114" s="57"/>
+      <c r="Z114" s="57"/>
+      <c r="AA114" s="57"/>
+      <c r="AB114" s="57"/>
+      <c r="AC114" s="57"/>
+      <c r="AD114" s="57"/>
+      <c r="AE114" s="57"/>
+      <c r="AF114" s="57"/>
+      <c r="AG114" s="57"/>
+      <c r="AH114" s="58"/>
+      <c r="AI114" s="64"/>
+    </row>
+    <row r="115" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="59">
+        <v>0</v>
+      </c>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="60"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="60"/>
+      <c r="O115" s="60"/>
+      <c r="P115" s="60"/>
+      <c r="Q115" s="60"/>
+      <c r="R115" s="60"/>
+      <c r="S115" s="60"/>
+      <c r="T115" s="60"/>
+      <c r="U115" s="60"/>
+      <c r="V115" s="60"/>
+      <c r="W115" s="60"/>
+      <c r="X115" s="60"/>
+      <c r="Y115" s="60"/>
+      <c r="Z115" s="60"/>
+      <c r="AA115" s="60"/>
+      <c r="AB115" s="60"/>
+      <c r="AC115" s="60"/>
+      <c r="AD115" s="60"/>
+      <c r="AE115" s="60"/>
+      <c r="AF115" s="60"/>
+      <c r="AG115" s="60"/>
+      <c r="AH115" s="61"/>
+      <c r="AI115" s="64"/>
+    </row>
+    <row r="116" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="54"/>
+      <c r="O116" s="54"/>
+      <c r="P116" s="54"/>
+      <c r="Q116" s="54"/>
+      <c r="R116" s="54"/>
+      <c r="S116" s="54"/>
+      <c r="T116" s="54"/>
+      <c r="U116" s="54"/>
+      <c r="V116" s="54"/>
+      <c r="W116" s="54"/>
+      <c r="X116" s="54"/>
+      <c r="Y116" s="54"/>
+      <c r="Z116" s="54"/>
+      <c r="AA116" s="54"/>
+      <c r="AB116" s="54"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="54"/>
+      <c r="AF116" s="54"/>
+      <c r="AG116" s="54"/>
+      <c r="AH116" s="55"/>
+      <c r="AI116" s="64"/>
+    </row>
+    <row r="117" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="16"/>
+      <c r="W117" s="16"/>
+      <c r="X117" s="16"/>
+      <c r="Y117" s="16"/>
+      <c r="Z117" s="16"/>
+      <c r="AA117" s="16"/>
+      <c r="AB117" s="16"/>
+      <c r="AC117" s="16"/>
+      <c r="AD117" s="16"/>
+      <c r="AE117" s="16"/>
+      <c r="AF117" s="16"/>
+      <c r="AG117" s="16"/>
+      <c r="AH117" s="17"/>
+      <c r="AI117" s="64"/>
+    </row>
+    <row r="118" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
+      <c r="V118" s="13"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="13"/>
+      <c r="Y118" s="13"/>
+      <c r="Z118" s="13"/>
+      <c r="AA118" s="13"/>
+      <c r="AB118" s="13"/>
+      <c r="AC118" s="13"/>
+      <c r="AD118" s="13"/>
+      <c r="AE118" s="13"/>
+      <c r="AF118" s="13"/>
+      <c r="AG118" s="13"/>
+      <c r="AH118" s="14"/>
+      <c r="AI118" s="64"/>
+    </row>
+    <row r="119" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
+      <c r="U119" s="13"/>
+      <c r="V119" s="13"/>
+      <c r="W119" s="13"/>
+      <c r="X119" s="13"/>
+      <c r="Y119" s="13"/>
+      <c r="Z119" s="13"/>
+      <c r="AA119" s="13"/>
+      <c r="AB119" s="13"/>
+      <c r="AC119" s="13"/>
+      <c r="AD119" s="13"/>
+      <c r="AE119" s="13"/>
+      <c r="AF119" s="13"/>
+      <c r="AG119" s="13"/>
+      <c r="AH119" s="14"/>
+      <c r="AI119" s="65"/>
+    </row>
+    <row r="120" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
+      <c r="V120" s="19"/>
+      <c r="W120" s="19"/>
+      <c r="X120" s="19"/>
+      <c r="Y120" s="19"/>
+      <c r="Z120" s="19"/>
+      <c r="AA120" s="19"/>
+      <c r="AB120" s="19"/>
+      <c r="AC120" s="19"/>
+      <c r="AD120" s="19"/>
+      <c r="AE120" s="19"/>
+      <c r="AF120" s="19"/>
+      <c r="AG120" s="19"/>
+      <c r="AH120" s="41"/>
+      <c r="AI120" s="63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="23"/>
+      <c r="P121" s="23"/>
+      <c r="Q121" s="23"/>
+      <c r="R121" s="23"/>
+      <c r="S121" s="23"/>
+      <c r="T121" s="23"/>
+      <c r="U121" s="23"/>
+      <c r="V121" s="23"/>
+      <c r="W121" s="23"/>
+      <c r="X121" s="23"/>
+      <c r="Y121" s="23"/>
+      <c r="Z121" s="23"/>
+      <c r="AA121" s="23"/>
+      <c r="AB121" s="23"/>
+      <c r="AC121" s="23"/>
+      <c r="AD121" s="23"/>
+      <c r="AE121" s="23"/>
+      <c r="AF121" s="23"/>
+      <c r="AG121" s="23"/>
+      <c r="AH121" s="37"/>
+      <c r="AI121" s="64"/>
+    </row>
+    <row r="122" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="23"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="25"/>
+      <c r="AI122" s="64"/>
+    </row>
+    <row r="123" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="28"/>
+      <c r="S123" s="35"/>
+      <c r="T123" s="27"/>
+      <c r="U123" s="27"/>
+      <c r="V123" s="27"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="27"/>
+      <c r="AA123" s="27"/>
+      <c r="AB123" s="27"/>
+      <c r="AC123" s="27"/>
+      <c r="AD123" s="27"/>
+      <c r="AE123" s="27"/>
+      <c r="AF123" s="27"/>
+      <c r="AG123" s="27"/>
+      <c r="AH123" s="36"/>
+      <c r="AI123" s="65"/>
+    </row>
+    <row r="124" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B124" s="2"/>
+      <c r="AH124" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AI14" s="3"/>
-      <c r="BR14" s="3"/>
-    </row>
-    <row r="15" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="2:70" x14ac:dyDescent="0.4">
-      <c r="B16"/>
-      <c r="C16" s="9"/>
-      <c r="AH16" s="10"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B17"/>
-      <c r="C17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="AH17" s="10"/>
-    </row>
-    <row r="18" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="13"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="125" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B127"/>
+      <c r="C127" s="4"/>
+      <c r="AH127" s="5"/>
+    </row>
+    <row r="128" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B128"/>
+      <c r="C128" s="4"/>
+      <c r="R128" s="5"/>
+      <c r="AH128" s="5"/>
+    </row>
+    <row r="129" spans="2:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C129" s="8"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+      <c r="U129" s="6"/>
+      <c r="V129" s="6"/>
+      <c r="W129" s="6"/>
+      <c r="X129" s="6"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="6"/>
+      <c r="AA129" s="6"/>
+      <c r="AB129" s="6"/>
+      <c r="AC129" s="6"/>
+      <c r="AD129" s="6"/>
+      <c r="AE129" s="6"/>
+      <c r="AF129" s="6"/>
+      <c r="AG129" s="6"/>
+      <c r="AH129" s="7"/>
+    </row>
+    <row r="130" spans="2:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="66">
+        <v>1</v>
+      </c>
+      <c r="D130" s="42">
+        <v>40</v>
+      </c>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="42"/>
+      <c r="O130" s="42"/>
+      <c r="P130" s="42"/>
+      <c r="Q130" s="42"/>
+      <c r="R130" s="42"/>
+      <c r="S130" s="42"/>
+      <c r="T130" s="42"/>
+      <c r="U130" s="42"/>
+      <c r="V130" s="42"/>
+      <c r="W130" s="42"/>
+      <c r="X130" s="42"/>
+      <c r="Y130" s="42"/>
+      <c r="Z130" s="42"/>
+      <c r="AA130" s="42"/>
+      <c r="AB130" s="42"/>
+      <c r="AC130" s="42"/>
+      <c r="AD130" s="42"/>
+      <c r="AE130" s="42"/>
+      <c r="AF130" s="42"/>
+      <c r="AG130" s="42"/>
+      <c r="AH130" s="43"/>
+    </row>
+    <row r="131" spans="2:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="16"/>
+      <c r="U131" s="16"/>
+      <c r="V131" s="16"/>
+      <c r="W131" s="16"/>
+      <c r="X131" s="16"/>
+      <c r="Y131" s="16"/>
+      <c r="Z131" s="16"/>
+      <c r="AA131" s="16"/>
+      <c r="AB131" s="16"/>
+      <c r="AC131" s="16"/>
+      <c r="AD131" s="16"/>
+      <c r="AE131" s="16"/>
+      <c r="AF131" s="16"/>
+      <c r="AG131" s="16"/>
+      <c r="AH131" s="17"/>
+      <c r="AI131" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13"/>
+      <c r="V132" s="13"/>
+      <c r="W132" s="13"/>
+      <c r="X132" s="13"/>
+      <c r="Y132" s="13"/>
+      <c r="Z132" s="13"/>
+      <c r="AA132" s="13"/>
+      <c r="AB132" s="13"/>
+      <c r="AC132" s="13"/>
+      <c r="AD132" s="13"/>
+      <c r="AE132" s="13"/>
+      <c r="AF132" s="13"/>
+      <c r="AG132" s="13"/>
+      <c r="AH132" s="14"/>
+      <c r="AI132" s="64"/>
+    </row>
+    <row r="133" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="12">
+        <v>2</v>
+      </c>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="13"/>
+      <c r="R133" s="13"/>
+      <c r="S133" s="13"/>
+      <c r="T133" s="13"/>
+      <c r="U133" s="13"/>
+      <c r="V133" s="13"/>
+      <c r="W133" s="13"/>
+      <c r="X133" s="13"/>
+      <c r="Y133" s="13"/>
+      <c r="Z133" s="13"/>
+      <c r="AA133" s="13"/>
+      <c r="AB133" s="13"/>
+      <c r="AC133" s="13"/>
+      <c r="AD133" s="13"/>
+      <c r="AE133" s="13"/>
+      <c r="AF133" s="13"/>
+      <c r="AG133" s="13"/>
+      <c r="AH133" s="14"/>
+      <c r="AI133" s="64"/>
+    </row>
+    <row r="134" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
+      <c r="Y134" s="13"/>
+      <c r="Z134" s="13"/>
+      <c r="AA134" s="13"/>
+      <c r="AB134" s="13"/>
+      <c r="AC134" s="13"/>
+      <c r="AD134" s="13"/>
+      <c r="AE134" s="13"/>
+      <c r="AF134" s="13"/>
+      <c r="AG134" s="13"/>
+      <c r="AH134" s="14"/>
+      <c r="AI134" s="64"/>
+    </row>
+    <row r="135" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
+      <c r="P135" s="13"/>
+      <c r="Q135" s="13"/>
+      <c r="R135" s="13"/>
+      <c r="S135" s="13"/>
+      <c r="T135" s="13"/>
+      <c r="U135" s="13"/>
+      <c r="V135" s="13"/>
+      <c r="W135" s="13"/>
+      <c r="X135" s="13"/>
+      <c r="Y135" s="13"/>
+      <c r="Z135" s="13"/>
+      <c r="AA135" s="13"/>
+      <c r="AB135" s="13"/>
+      <c r="AC135" s="13"/>
+      <c r="AD135" s="13"/>
+      <c r="AE135" s="13"/>
+      <c r="AF135" s="13"/>
+      <c r="AG135" s="13"/>
+      <c r="AH135" s="14"/>
+      <c r="AI135" s="64"/>
+    </row>
+    <row r="136" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="13"/>
+      <c r="P136" s="13"/>
+      <c r="Q136" s="13"/>
+      <c r="R136" s="13"/>
+      <c r="S136" s="13"/>
+      <c r="T136" s="13"/>
+      <c r="U136" s="13"/>
+      <c r="V136" s="13"/>
+      <c r="W136" s="13"/>
+      <c r="X136" s="13"/>
+      <c r="Y136" s="13"/>
+      <c r="Z136" s="13"/>
+      <c r="AA136" s="13"/>
+      <c r="AB136" s="13"/>
+      <c r="AC136" s="13"/>
+      <c r="AD136" s="13"/>
+      <c r="AE136" s="13"/>
+      <c r="AF136" s="13"/>
+      <c r="AG136" s="13"/>
+      <c r="AH136" s="14"/>
+      <c r="AI136" s="64"/>
+    </row>
+    <row r="137" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B137" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="16"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
+      <c r="C137" s="44">
+        <v>0</v>
+      </c>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="45"/>
+      <c r="M137" s="45"/>
+      <c r="N137" s="45"/>
+      <c r="O137" s="45"/>
+      <c r="P137" s="45"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="45"/>
+      <c r="S137" s="45"/>
+      <c r="T137" s="45"/>
+      <c r="U137" s="45"/>
+      <c r="V137" s="45"/>
+      <c r="W137" s="45"/>
+      <c r="X137" s="45"/>
+      <c r="Y137" s="45"/>
+      <c r="Z137" s="45"/>
+      <c r="AA137" s="45"/>
+      <c r="AB137" s="45"/>
+      <c r="AC137" s="45"/>
+      <c r="AD137" s="45"/>
+      <c r="AE137" s="45"/>
+      <c r="AF137" s="45"/>
+      <c r="AG137" s="45"/>
+      <c r="AH137" s="46"/>
+      <c r="AI137" s="64"/>
+    </row>
+    <row r="138" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B138" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="18"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
+      <c r="C138" s="47">
+        <v>0</v>
+      </c>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="48"/>
+      <c r="K138" s="48"/>
+      <c r="L138" s="48"/>
+      <c r="M138" s="48"/>
+      <c r="N138" s="48"/>
+      <c r="O138" s="48"/>
+      <c r="P138" s="48"/>
+      <c r="Q138" s="48"/>
+      <c r="R138" s="48"/>
+      <c r="S138" s="48"/>
+      <c r="T138" s="48"/>
+      <c r="U138" s="48"/>
+      <c r="V138" s="48"/>
+      <c r="W138" s="48"/>
+      <c r="X138" s="48"/>
+      <c r="Y138" s="48"/>
+      <c r="Z138" s="48"/>
+      <c r="AA138" s="48"/>
+      <c r="AB138" s="48"/>
+      <c r="AC138" s="48"/>
+      <c r="AD138" s="48"/>
+      <c r="AE138" s="48"/>
+      <c r="AF138" s="48"/>
+      <c r="AG138" s="48"/>
+      <c r="AH138" s="49"/>
+      <c r="AI138" s="64"/>
+    </row>
+    <row r="139" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="18"/>
-    </row>
-    <row r="22" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
+      <c r="C139" s="44">
+        <v>0</v>
+      </c>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="45"/>
+      <c r="M139" s="45"/>
+      <c r="N139" s="45"/>
+      <c r="O139" s="45"/>
+      <c r="P139" s="45"/>
+      <c r="Q139" s="45"/>
+      <c r="R139" s="45"/>
+      <c r="S139" s="45"/>
+      <c r="T139" s="45"/>
+      <c r="U139" s="45"/>
+      <c r="V139" s="45"/>
+      <c r="W139" s="45"/>
+      <c r="X139" s="45"/>
+      <c r="Y139" s="45"/>
+      <c r="Z139" s="45"/>
+      <c r="AA139" s="45"/>
+      <c r="AB139" s="45"/>
+      <c r="AC139" s="45"/>
+      <c r="AD139" s="45"/>
+      <c r="AE139" s="45"/>
+      <c r="AF139" s="45"/>
+      <c r="AG139" s="45"/>
+      <c r="AH139" s="46"/>
+      <c r="AI139" s="64"/>
+    </row>
+    <row r="140" spans="2:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C140" s="50">
+        <v>0</v>
+      </c>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
+      <c r="K140" s="51"/>
+      <c r="L140" s="51"/>
+      <c r="M140" s="51"/>
+      <c r="N140" s="51"/>
+      <c r="O140" s="51"/>
+      <c r="P140" s="51"/>
+      <c r="Q140" s="51"/>
+      <c r="R140" s="51"/>
+      <c r="S140" s="51"/>
+      <c r="T140" s="51"/>
+      <c r="U140" s="51"/>
+      <c r="V140" s="51"/>
+      <c r="W140" s="51"/>
+      <c r="X140" s="51"/>
+      <c r="Y140" s="51"/>
+      <c r="Z140" s="51"/>
+      <c r="AA140" s="51"/>
+      <c r="AB140" s="51"/>
+      <c r="AC140" s="51"/>
+      <c r="AD140" s="51"/>
+      <c r="AE140" s="51"/>
+      <c r="AF140" s="51"/>
+      <c r="AG140" s="51"/>
+      <c r="AH140" s="52"/>
+      <c r="AI140" s="64"/>
+    </row>
+    <row r="141" spans="2:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33"/>
+      <c r="X141" s="33"/>
+      <c r="Y141" s="33"/>
+      <c r="Z141" s="33"/>
+      <c r="AA141" s="33"/>
+      <c r="AB141" s="33"/>
+      <c r="AC141" s="33"/>
+      <c r="AD141" s="33"/>
+      <c r="AE141" s="33"/>
+      <c r="AF141" s="33"/>
+      <c r="AG141" s="33"/>
+      <c r="AH141" s="34"/>
+      <c r="AI141" s="65"/>
+    </row>
+    <row r="142" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="AG142" s="70"/>
+      <c r="AH142" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI142" s="72"/>
+      <c r="AJ142" s="70"/>
+      <c r="AK142" s="70"/>
+      <c r="AL142" s="70"/>
+    </row>
+    <row r="143" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG143" s="70"/>
+      <c r="AH143" s="70"/>
+      <c r="AI143" s="72"/>
+      <c r="AJ143" s="70"/>
+      <c r="AK143" s="70"/>
+      <c r="AL143" s="70"/>
+    </row>
+    <row r="144" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="AG144" s="70"/>
+      <c r="AH144" s="70"/>
+      <c r="AI144" s="72"/>
+      <c r="AJ144" s="70"/>
+      <c r="AK144" s="70"/>
+      <c r="AL144" s="70"/>
+    </row>
+    <row r="145" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B145"/>
+      <c r="C145" s="4"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="70"/>
+      <c r="AJ145" s="70"/>
+      <c r="AK145" s="70"/>
+    </row>
+    <row r="146" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B146"/>
+      <c r="C146" s="4"/>
+      <c r="R146" s="5"/>
+      <c r="AH146" s="5"/>
+    </row>
+    <row r="147" spans="2:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C147" s="8"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="6"/>
+      <c r="W147" s="6"/>
+      <c r="X147" s="6"/>
+      <c r="Y147" s="6"/>
+      <c r="Z147" s="6"/>
+      <c r="AA147" s="6"/>
+      <c r="AB147" s="6"/>
+      <c r="AC147" s="6"/>
+      <c r="AD147" s="6"/>
+      <c r="AE147" s="6"/>
+      <c r="AF147" s="6"/>
+      <c r="AG147" s="6"/>
+      <c r="AH147" s="7"/>
+    </row>
+    <row r="148" spans="2:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="66">
+        <v>1</v>
+      </c>
+      <c r="D148" s="42">
         <v>24</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="29"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B26"/>
-      <c r="C26" s="9"/>
-      <c r="AH26" s="10"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B27"/>
-      <c r="C27" s="9"/>
-      <c r="R27" s="10"/>
-      <c r="AH27" s="10"/>
-    </row>
-    <row r="28" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="13"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="16"/>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="18"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="18"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="42"/>
+      <c r="T148" s="42"/>
+      <c r="U148" s="42"/>
+      <c r="V148" s="42"/>
+      <c r="W148" s="42"/>
+      <c r="X148" s="42"/>
+      <c r="Y148" s="42"/>
+      <c r="Z148" s="42"/>
+      <c r="AA148" s="42"/>
+      <c r="AB148" s="42"/>
+      <c r="AC148" s="42"/>
+      <c r="AD148" s="42"/>
+      <c r="AE148" s="42"/>
+      <c r="AF148" s="42"/>
+      <c r="AG148" s="42"/>
+      <c r="AH148" s="43"/>
+    </row>
+    <row r="149" spans="2:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
+      <c r="P149" s="16"/>
+      <c r="Q149" s="16"/>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="16"/>
+      <c r="U149" s="16"/>
+      <c r="V149" s="16"/>
+      <c r="W149" s="16"/>
+      <c r="X149" s="16"/>
+      <c r="Y149" s="16"/>
+      <c r="Z149" s="16"/>
+      <c r="AA149" s="16"/>
+      <c r="AB149" s="16"/>
+      <c r="AC149" s="16"/>
+      <c r="AD149" s="16"/>
+      <c r="AE149" s="16"/>
+      <c r="AF149" s="16"/>
+      <c r="AG149" s="16"/>
+      <c r="AH149" s="17"/>
+      <c r="AI149" s="63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="13"/>
+      <c r="S150" s="13"/>
+      <c r="T150" s="13"/>
+      <c r="U150" s="13"/>
+      <c r="V150" s="13"/>
+      <c r="W150" s="13"/>
+      <c r="X150" s="13"/>
+      <c r="Y150" s="13"/>
+      <c r="Z150" s="13"/>
+      <c r="AA150" s="13"/>
+      <c r="AB150" s="13"/>
+      <c r="AC150" s="13"/>
+      <c r="AD150" s="13"/>
+      <c r="AE150" s="13"/>
+      <c r="AF150" s="13"/>
+      <c r="AG150" s="13"/>
+      <c r="AH150" s="14"/>
+      <c r="AI150" s="64"/>
+    </row>
+    <row r="151" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="54"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
+      <c r="P151" s="54"/>
+      <c r="Q151" s="54"/>
+      <c r="R151" s="54"/>
+      <c r="S151" s="54"/>
+      <c r="T151" s="54"/>
+      <c r="U151" s="54"/>
+      <c r="V151" s="54"/>
+      <c r="W151" s="54"/>
+      <c r="X151" s="54"/>
+      <c r="Y151" s="54"/>
+      <c r="Z151" s="54"/>
+      <c r="AA151" s="54"/>
+      <c r="AB151" s="54"/>
+      <c r="AC151" s="54"/>
+      <c r="AD151" s="54"/>
+      <c r="AE151" s="54"/>
+      <c r="AF151" s="54"/>
+      <c r="AG151" s="54"/>
+      <c r="AH151" s="55"/>
+      <c r="AI151" s="64"/>
+    </row>
+    <row r="152" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B152" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="18"/>
-    </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="18"/>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="30"/>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="32"/>
-    </row>
-    <row r="36" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="26"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B40"/>
-      <c r="C40" s="9"/>
-      <c r="AH40" s="10"/>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B41"/>
-      <c r="C41" s="9"/>
-      <c r="R41" s="10"/>
-      <c r="AH41" s="10"/>
-    </row>
-    <row r="42" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="13"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
+      <c r="C152" s="56">
         <v>0</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="16"/>
-    </row>
-    <row r="44" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="29"/>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B48"/>
-      <c r="C48" s="9"/>
-      <c r="AH48" s="10"/>
-    </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B49"/>
-      <c r="C49" s="9"/>
-      <c r="R49" s="10"/>
-      <c r="AH49" s="10"/>
-    </row>
-    <row r="50" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="13"/>
-    </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="16"/>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="18"/>
-    </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="18"/>
-    </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="18"/>
-    </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="18"/>
-    </row>
-    <row r="56" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="29"/>
-    </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B60"/>
-      <c r="C60" s="9"/>
-      <c r="AH60" s="10"/>
-    </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B61"/>
-      <c r="C61" s="9"/>
-      <c r="R61" s="10"/>
-      <c r="AH61" s="10"/>
-    </row>
-    <row r="62" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="13"/>
-    </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B63" s="2" t="s">
+      <c r="D152" s="57"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="57"/>
+      <c r="L152" s="57"/>
+      <c r="M152" s="57"/>
+      <c r="N152" s="57"/>
+      <c r="O152" s="57"/>
+      <c r="P152" s="57"/>
+      <c r="Q152" s="57"/>
+      <c r="R152" s="57"/>
+      <c r="S152" s="57"/>
+      <c r="T152" s="57"/>
+      <c r="U152" s="57"/>
+      <c r="V152" s="57"/>
+      <c r="W152" s="57"/>
+      <c r="X152" s="57"/>
+      <c r="Y152" s="57"/>
+      <c r="Z152" s="57"/>
+      <c r="AA152" s="57"/>
+      <c r="AB152" s="57"/>
+      <c r="AC152" s="57"/>
+      <c r="AD152" s="57"/>
+      <c r="AE152" s="57"/>
+      <c r="AF152" s="57"/>
+      <c r="AG152" s="57"/>
+      <c r="AH152" s="58"/>
+      <c r="AI152" s="64"/>
+    </row>
+    <row r="153" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="59">
         <v>0</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
-      <c r="AF63" s="15"/>
-      <c r="AG63" s="15"/>
-      <c r="AH63" s="16"/>
-    </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="18"/>
-    </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="18"/>
-    </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="30"/>
-    </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-      <c r="AA67" s="6"/>
-      <c r="AB67" s="6"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="36"/>
-    </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="7"/>
-      <c r="AH68" s="32"/>
-    </row>
-    <row r="69" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
-      <c r="AD69" s="34"/>
-      <c r="AE69" s="34"/>
-      <c r="AF69" s="34"/>
-      <c r="AG69" s="34"/>
-      <c r="AH69" s="38"/>
-    </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
+      <c r="M153" s="60"/>
+      <c r="N153" s="60"/>
+      <c r="O153" s="60"/>
+      <c r="P153" s="60"/>
+      <c r="Q153" s="60"/>
+      <c r="R153" s="60"/>
+      <c r="S153" s="60"/>
+      <c r="T153" s="60"/>
+      <c r="U153" s="60"/>
+      <c r="V153" s="60"/>
+      <c r="W153" s="60"/>
+      <c r="X153" s="60"/>
+      <c r="Y153" s="60"/>
+      <c r="Z153" s="60"/>
+      <c r="AA153" s="60"/>
+      <c r="AB153" s="60"/>
+      <c r="AC153" s="60"/>
+      <c r="AD153" s="60"/>
+      <c r="AE153" s="60"/>
+      <c r="AF153" s="60"/>
+      <c r="AG153" s="60"/>
+      <c r="AH153" s="61"/>
+      <c r="AI153" s="64"/>
+    </row>
+    <row r="154" spans="2:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="54"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
+      <c r="L154" s="54"/>
+      <c r="M154" s="54"/>
+      <c r="N154" s="54"/>
+      <c r="O154" s="54"/>
+      <c r="P154" s="54"/>
+      <c r="Q154" s="54"/>
+      <c r="R154" s="54"/>
+      <c r="S154" s="54"/>
+      <c r="T154" s="54"/>
+      <c r="U154" s="54"/>
+      <c r="V154" s="54"/>
+      <c r="W154" s="54"/>
+      <c r="X154" s="54"/>
+      <c r="Y154" s="54"/>
+      <c r="Z154" s="54"/>
+      <c r="AA154" s="54"/>
+      <c r="AB154" s="54"/>
+      <c r="AC154" s="54"/>
+      <c r="AD154" s="54"/>
+      <c r="AE154" s="54"/>
+      <c r="AF154" s="54"/>
+      <c r="AG154" s="54"/>
+      <c r="AH154" s="55"/>
+      <c r="AI154" s="64"/>
+    </row>
+    <row r="155" spans="2:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B73"/>
-      <c r="C73" s="9"/>
-      <c r="AH73" s="10"/>
-    </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B74"/>
-      <c r="C74" s="9"/>
-      <c r="R74" s="10"/>
-      <c r="AH74" s="10"/>
-    </row>
-    <row r="75" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="13"/>
-    </row>
-    <row r="76" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="40"/>
-      <c r="AG76" s="40"/>
-      <c r="AH76" s="41"/>
-    </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B80"/>
-      <c r="C80" s="9"/>
-      <c r="AH80" s="10"/>
-    </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B81"/>
-      <c r="C81" s="9"/>
-      <c r="R81" s="10"/>
-      <c r="AH81" s="10"/>
-    </row>
-    <row r="82" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
-      <c r="Z82" s="12"/>
-      <c r="AA82" s="12"/>
-      <c r="AB82" s="12"/>
-      <c r="AC82" s="12"/>
-      <c r="AD82" s="12"/>
-      <c r="AE82" s="12"/>
-      <c r="AF82" s="12"/>
-      <c r="AG82" s="12"/>
-      <c r="AH82" s="13"/>
-    </row>
-    <row r="83" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="40"/>
-      <c r="Z83" s="40"/>
-      <c r="AA83" s="40"/>
-      <c r="AB83" s="40"/>
-      <c r="AC83" s="40"/>
-      <c r="AD83" s="40"/>
-      <c r="AE83" s="40"/>
-      <c r="AF83" s="40"/>
-      <c r="AG83" s="40"/>
-      <c r="AH83" s="41"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="33"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="33"/>
+      <c r="R155" s="33"/>
+      <c r="S155" s="33"/>
+      <c r="T155" s="33"/>
+      <c r="U155" s="33"/>
+      <c r="V155" s="33"/>
+      <c r="W155" s="33"/>
+      <c r="X155" s="33"/>
+      <c r="Y155" s="33"/>
+      <c r="Z155" s="33"/>
+      <c r="AA155" s="33"/>
+      <c r="AB155" s="33"/>
+      <c r="AC155" s="33"/>
+      <c r="AD155" s="33"/>
+      <c r="AE155" s="33"/>
+      <c r="AF155" s="33"/>
+      <c r="AG155" s="33"/>
+      <c r="AH155" s="34"/>
+      <c r="AI155" s="65"/>
+    </row>
+    <row r="156" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AH156" s="62" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="K62:R62"/>
-    <mergeCell ref="S62:Z62"/>
-    <mergeCell ref="AA62:AH62"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="S50:Z50"/>
-    <mergeCell ref="AA50:AH50"/>
+  <mergeCells count="177">
+    <mergeCell ref="AI63:AI65"/>
+    <mergeCell ref="AI111:AI119"/>
+    <mergeCell ref="AI120:AI123"/>
+    <mergeCell ref="C153:AH153"/>
+    <mergeCell ref="C154:AH154"/>
+    <mergeCell ref="AI8:AI21"/>
+    <mergeCell ref="AI149:AI155"/>
+    <mergeCell ref="AI31:AI40"/>
+    <mergeCell ref="AI48:AI62"/>
+    <mergeCell ref="AI73:AI80"/>
+    <mergeCell ref="AI88:AI103"/>
+    <mergeCell ref="AI131:AI141"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="D148:AH148"/>
+    <mergeCell ref="C149:AH149"/>
+    <mergeCell ref="C150:AH150"/>
+    <mergeCell ref="C151:AH151"/>
+    <mergeCell ref="C152:AH152"/>
+    <mergeCell ref="C77:AH77"/>
+    <mergeCell ref="C78:AH78"/>
+    <mergeCell ref="D110:AH110"/>
+    <mergeCell ref="C111:AH111"/>
+    <mergeCell ref="C112:AH112"/>
+    <mergeCell ref="C137:AH137"/>
+    <mergeCell ref="C138:AH138"/>
+    <mergeCell ref="C139:AH139"/>
+    <mergeCell ref="C140:AH140"/>
+    <mergeCell ref="D30:AH30"/>
+    <mergeCell ref="C31:AH31"/>
+    <mergeCell ref="C32:AH32"/>
+    <mergeCell ref="C33:AH33"/>
+    <mergeCell ref="C34:AH34"/>
+    <mergeCell ref="C35:AH35"/>
+    <mergeCell ref="C36:AH36"/>
+    <mergeCell ref="D72:AH72"/>
+    <mergeCell ref="C73:AH73"/>
+    <mergeCell ref="C74:AH74"/>
+    <mergeCell ref="C75:AH75"/>
+    <mergeCell ref="C76:AH76"/>
+    <mergeCell ref="C97:AH97"/>
+    <mergeCell ref="D130:AH130"/>
+    <mergeCell ref="C131:AH131"/>
+    <mergeCell ref="C132:AH132"/>
+    <mergeCell ref="C133:AH133"/>
+    <mergeCell ref="C113:AH113"/>
+    <mergeCell ref="C114:AH114"/>
+    <mergeCell ref="C115:AH115"/>
+    <mergeCell ref="C116:AH116"/>
+    <mergeCell ref="C53:AH53"/>
+    <mergeCell ref="C54:AH54"/>
+    <mergeCell ref="C55:AH55"/>
     <mergeCell ref="C56:AH56"/>
-    <mergeCell ref="C21:AH21"/>
+    <mergeCell ref="C57:AH57"/>
+    <mergeCell ref="C48:AH48"/>
+    <mergeCell ref="C49:AH49"/>
+    <mergeCell ref="C50:AH50"/>
+    <mergeCell ref="C51:AH51"/>
+    <mergeCell ref="C52:AH52"/>
+    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="C12:AH12"/>
+    <mergeCell ref="C13:AH13"/>
+    <mergeCell ref="C14:AH14"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="C16:AH16"/>
+    <mergeCell ref="D7:AH7"/>
+    <mergeCell ref="C8:AH8"/>
+    <mergeCell ref="C9:AH9"/>
+    <mergeCell ref="C10:AH10"/>
+    <mergeCell ref="C11:AH11"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="K120:R120"/>
+    <mergeCell ref="S120:Z120"/>
+    <mergeCell ref="AA120:AH120"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="AA63:AH63"/>
+    <mergeCell ref="C98:AH98"/>
+    <mergeCell ref="C79:AH79"/>
+    <mergeCell ref="C80:AH80"/>
+    <mergeCell ref="S71:Z71"/>
+    <mergeCell ref="D87:AH87"/>
+    <mergeCell ref="C88:AH88"/>
+    <mergeCell ref="C89:AH89"/>
+    <mergeCell ref="C90:AH90"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C58:AH58"/>
+    <mergeCell ref="C59:AH59"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="C60:AH60"/>
+    <mergeCell ref="C37:AH37"/>
+    <mergeCell ref="C38:AH38"/>
+    <mergeCell ref="C40:AH40"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="S46:Z46"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="D47:AH47"/>
+    <mergeCell ref="C122:J122"/>
+    <mergeCell ref="K122:R122"/>
+    <mergeCell ref="S122:Z122"/>
+    <mergeCell ref="AA122:AH122"/>
+    <mergeCell ref="C155:AH155"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="S147:Z147"/>
+    <mergeCell ref="AA147:AH147"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="K129:R129"/>
+    <mergeCell ref="S129:Z129"/>
+    <mergeCell ref="AA129:AH129"/>
+    <mergeCell ref="C134:AH134"/>
+    <mergeCell ref="C135:AH135"/>
+    <mergeCell ref="C136:AH136"/>
+    <mergeCell ref="C141:AH141"/>
+    <mergeCell ref="C117:AH117"/>
+    <mergeCell ref="C118:AH118"/>
+    <mergeCell ref="C119:AH119"/>
+    <mergeCell ref="C99:AH99"/>
+    <mergeCell ref="C100:AH100"/>
+    <mergeCell ref="C101:AH101"/>
+    <mergeCell ref="C102:AH102"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="K123:R123"/>
+    <mergeCell ref="S123:Z123"/>
+    <mergeCell ref="AA123:AH123"/>
+    <mergeCell ref="C121:J121"/>
+    <mergeCell ref="K121:R121"/>
+    <mergeCell ref="S121:Z121"/>
+    <mergeCell ref="AA121:AH121"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="K65:R65"/>
+    <mergeCell ref="S65:Z65"/>
+    <mergeCell ref="AA65:AH65"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="C61:AH61"/>
+    <mergeCell ref="C62:AH62"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="K64:R64"/>
+    <mergeCell ref="S64:Z64"/>
+    <mergeCell ref="AA64:AH64"/>
+    <mergeCell ref="C39:AH39"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:Z6"/>
     <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="C7:AH7"/>
-    <mergeCell ref="C8:AH8"/>
-    <mergeCell ref="C9:AH9"/>
-    <mergeCell ref="C10:AH10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="C32:AH32"/>
-    <mergeCell ref="C33:AH33"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="S35:Z35"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="S36:Z36"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="C76:AH76"/>
-    <mergeCell ref="C63:AH63"/>
-    <mergeCell ref="C64:AH64"/>
-    <mergeCell ref="C65:AH65"/>
-    <mergeCell ref="C52:AH52"/>
-    <mergeCell ref="C53:AH53"/>
-    <mergeCell ref="C54:AH54"/>
-    <mergeCell ref="C55:AH55"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="S69:Z69"/>
-    <mergeCell ref="AA69:AH69"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K67:R67"/>
-    <mergeCell ref="S67:Z67"/>
-    <mergeCell ref="AA67:AH67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="K68:R68"/>
-    <mergeCell ref="S68:Z68"/>
-    <mergeCell ref="AA68:AH68"/>
-    <mergeCell ref="C83:AH83"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="K75:R75"/>
-    <mergeCell ref="S75:Z75"/>
-    <mergeCell ref="AA75:AH75"/>
-    <mergeCell ref="C31:AH31"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:Z29"/>
+    <mergeCell ref="C18:AH18"/>
     <mergeCell ref="C19:AH19"/>
     <mergeCell ref="C20:AH20"/>
-    <mergeCell ref="C22:AH22"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C29:AH29"/>
-    <mergeCell ref="C30:AH30"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K66:R66"/>
-    <mergeCell ref="S66:Z66"/>
-    <mergeCell ref="AA66:AH66"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="S34:Z34"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="C51:AH51"/>
-    <mergeCell ref="C43:AH43"/>
-    <mergeCell ref="C44:AH44"/>
-    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="C21:AH21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="AA71:AH71"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:R109"/>
+    <mergeCell ref="S109:Z109"/>
+    <mergeCell ref="AA109:AH109"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="C103:AH103"/>
+    <mergeCell ref="C91:AH91"/>
+    <mergeCell ref="C92:AH92"/>
+    <mergeCell ref="C93:AH93"/>
+    <mergeCell ref="C94:AH94"/>
+    <mergeCell ref="C95:AH95"/>
+    <mergeCell ref="C96:AH96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:B12 B19:B22 B29:B36 B43:B44 B51:B56 B63:B69 B76 B83" numberStoredAsText="1"/>
+    <ignoredError sqref="B37:B40 B58:B65 B79:B80 B98:B103 B117:B123 B141 B155 B18:B23 B7:B17 B30:B36 B72:B78 B130:B140 B148:B154 B110:B116 B87:B97 B47:B57" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
